--- a/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_ndc_2.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_ndc_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/sisepuede_modeling/ssp_uganda_data/ssp_modeling/scenario_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED09807-82B1-B44F-8968-0AF01B4DC669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3585CFD-76B3-5345-A6D3-CE5D0D120EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2819,7 +2819,9 @@
       <c r="H42" s="16">
         <v>0.25</v>
       </c>
-      <c r="I42" s="23"/>
+      <c r="I42" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
@@ -3354,7 +3356,9 @@
       <c r="H61" s="19">
         <v>1</v>
       </c>
-      <c r="I61" s="23"/>
+      <c r="I61" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">

--- a/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_ndc_2.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_ndc_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/sisepuede_modeling/ssp_uganda_data/ssp_modeling/scenario_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3585CFD-76B3-5345-A6D3-CE5D0D120EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E630D-2590-AF48-834D-418187FC359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1639,8 +1639,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2015,7 +2015,7 @@
         <v>0.3</v>
       </c>
       <c r="I13" s="23">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -2044,7 +2044,7 @@
         <v>0.4</v>
       </c>
       <c r="I14" s="23">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,7 +2073,7 @@
         <v>240</v>
       </c>
       <c r="I15" s="23">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -2627,7 +2627,7 @@
         <v>0.5</v>
       </c>
       <c r="I35" s="23">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -2683,7 +2683,7 @@
         <v>0.95</v>
       </c>
       <c r="I37" s="23">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -3423,6 +3423,18 @@
       <c r="I65" s="27"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
